--- a/data/StudentLoans.xlsx
+++ b/data/StudentLoans.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bchartof/Projects/wealth-inequality-charts/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="17235" windowHeight="8760"/>
+    <workbookView xWindow="240" yWindow="1020" windowWidth="17240" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Student Loans" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,15 @@
     <definedName name="B">#REF!</definedName>
     <definedName name="C_">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,18 +42,6 @@
   </si>
   <si>
     <t>Hispanic</t>
-  </si>
-  <si>
-    <t>Average Family Student Loan Debt for Those Age 25-55, 1989-2013</t>
-  </si>
-  <si>
-    <t>Share of Families With Student Loan Debt for Those Ages 25-55, 1989-2013</t>
-  </si>
-  <si>
-    <t>Note: 2013 dollars. Age is defined as the age of the household head.</t>
-  </si>
-  <si>
-    <t>African American</t>
   </si>
   <si>
     <r>
@@ -65,7 +66,57 @@
     </r>
   </si>
   <si>
-    <t>Source: Urban Institute calculations from Survey of Consumer Finances 1989–2013.</t>
+    <t>Average Family Student Loan Debt for Those Age 25-55, 1989-2016</t>
+  </si>
+  <si>
+    <t>Share of Families With Student Loan Debt for Those Ages 25-55, 1989-2016</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Urban Institute calculations from Survey of Consumer Finances 1989–2016.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2016 dollars. Age is defined as the age of the household head.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -76,7 +127,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +178,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -149,10 +207,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -176,13 +234,10 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -193,6 +248,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="14" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -216,6 +278,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -23682,12 +23747,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -23717,12 +23782,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -23926,330 +23991,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1989</v>
       </c>
-      <c r="B3" s="3">
-        <v>1066.0309999999999</v>
+      <c r="B3" s="8">
+        <v>1100.4069999999999</v>
       </c>
-      <c r="C3" s="3">
-        <v>1124.3130000000001</v>
+      <c r="C3" s="8">
+        <v>1160.568</v>
       </c>
-      <c r="D3" s="3">
-        <v>869.54229999999995</v>
+      <c r="D3" s="8">
+        <v>897.58259999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
-      <c r="B4" s="3">
-        <v>1280.0940000000001</v>
+      <c r="B4" s="8">
+        <v>1321.3030000000001</v>
       </c>
-      <c r="C4" s="3">
-        <v>898.55579999999998</v>
+      <c r="C4" s="8">
+        <v>927.48239999999998</v>
       </c>
-      <c r="D4" s="3">
-        <v>768.32669999999996</v>
+      <c r="D4" s="8">
+        <v>793.06100000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1995</v>
       </c>
-      <c r="B5" s="3">
-        <v>1827.6379999999999</v>
+      <c r="B5" s="8">
+        <v>1885.5830000000001</v>
       </c>
-      <c r="C5" s="3">
-        <v>1863.796</v>
+      <c r="C5" s="8">
+        <v>1922.886</v>
       </c>
-      <c r="D5" s="3">
-        <v>1353.9380000000001</v>
+      <c r="D5" s="8">
+        <v>1396.864</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1998</v>
       </c>
-      <c r="B6" s="3">
-        <v>3001.5729999999999</v>
+      <c r="B6" s="8">
+        <v>3115.2080000000001</v>
       </c>
-      <c r="C6" s="3">
-        <v>1259.3610000000001</v>
+      <c r="C6" s="8">
+        <v>1325.2170000000001</v>
       </c>
-      <c r="D6" s="3">
-        <v>1395.1369999999999</v>
+      <c r="D6" s="8">
+        <v>1436.579</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2001</v>
       </c>
-      <c r="B7" s="3">
-        <v>2873.65</v>
+      <c r="B7" s="8">
+        <v>2979.72</v>
       </c>
-      <c r="C7" s="3">
-        <v>2187.0369999999998</v>
+      <c r="C7" s="8">
+        <v>2223.7190000000001</v>
       </c>
-      <c r="D7" s="3">
-        <v>1644.259</v>
+      <c r="D7" s="8">
+        <v>1729.8610000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
-      <c r="B8" s="3">
-        <v>3857.9630000000002</v>
+      <c r="B8" s="8">
+        <v>4035.6750000000002</v>
       </c>
-      <c r="C8" s="3">
-        <v>3770.2649999999999</v>
+      <c r="C8" s="8">
+        <v>3987.1770000000001</v>
       </c>
-      <c r="D8" s="3">
-        <v>1603.4570000000001</v>
+      <c r="D8" s="8">
+        <v>1651.79</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
-      <c r="B9" s="3">
-        <v>5010.893</v>
+      <c r="B9" s="8">
+        <v>5263.567</v>
       </c>
-      <c r="C9" s="3">
-        <v>6399.6379999999999</v>
+      <c r="C9" s="8">
+        <v>6111.0280000000002</v>
       </c>
-      <c r="D9" s="3">
-        <v>3249.2339999999999</v>
+      <c r="D9" s="8">
+        <v>3005.4769999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2010</v>
       </c>
-      <c r="B10" s="3">
-        <v>7893.616</v>
+      <c r="B10" s="8">
+        <v>8041.9889999999996</v>
       </c>
-      <c r="C10" s="3">
-        <v>9192.0650000000005</v>
+      <c r="C10" s="8">
+        <v>9510.1</v>
       </c>
-      <c r="D10" s="3">
-        <v>3402.8069999999998</v>
+      <c r="D10" s="8">
+        <v>3089.1660000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2013</v>
       </c>
-      <c r="B11" s="3">
-        <v>8019.9970000000003</v>
+      <c r="B11" s="8">
+        <v>8363.6049999999996</v>
       </c>
-      <c r="C11" s="3">
-        <v>10295.33</v>
+      <c r="C11" s="8">
+        <v>10302.66</v>
       </c>
-      <c r="D11" s="3">
-        <v>3434.1419999999998</v>
+      <c r="D11" s="8">
+        <v>3177.41</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="8">
+        <v>11108.41</v>
+      </c>
+      <c r="C12" s="8">
+        <v>14224.77</v>
+      </c>
+      <c r="D12" s="8">
+        <v>7493.9989999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="2" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>1989</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B16" s="3">
         <v>0.10471229999999999</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="3">
         <v>0.1788198</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="3">
         <v>0.12725230000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>1992</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B17" s="3">
         <v>0.14333399999999999</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C17" s="3">
         <v>0.13827709999999999</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D17" s="3">
         <v>9.1457399999999994E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>1995</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B18" s="3">
         <v>0.16394529999999999</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C18" s="3">
         <v>0.1696231</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D18" s="3">
         <v>0.1355392</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>1998</v>
       </c>
-      <c r="B18" s="4">
-        <v>0.15656999999999999</v>
+      <c r="B19" s="3">
+        <v>0.15646679999999999</v>
       </c>
-      <c r="C18" s="4">
-        <v>0.1379416</v>
+      <c r="C19" s="3">
+        <v>0.14063580000000001</v>
       </c>
-      <c r="D18" s="4">
-        <v>0.1032058</v>
+      <c r="D19" s="3">
+        <v>0.1022798</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>2001</v>
       </c>
-      <c r="B19" s="4">
-        <v>0.14626459999999999</v>
+      <c r="B20" s="3">
+        <v>0.1467881</v>
       </c>
-      <c r="C19" s="4">
-        <v>0.1890405</v>
+      <c r="C20" s="3">
+        <v>0.18491850000000001</v>
       </c>
-      <c r="D19" s="4">
-        <v>0.13148660000000001</v>
+      <c r="D20" s="3">
+        <v>0.13408100000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>2004</v>
       </c>
-      <c r="B20" s="4">
-        <v>0.18275810000000001</v>
+      <c r="B21" s="3">
+        <v>0.18294060000000001</v>
       </c>
-      <c r="C20" s="4">
-        <v>0.21065739999999999</v>
+      <c r="C21" s="3">
+        <v>0.21600839999999999</v>
       </c>
-      <c r="D20" s="4">
-        <v>0.1094617</v>
+      <c r="D21" s="3">
+        <v>0.1035643</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>2007</v>
       </c>
-      <c r="B21" s="4">
-        <v>0.19497610000000001</v>
+      <c r="B22" s="3">
+        <v>0.1969195</v>
       </c>
-      <c r="C21" s="4">
-        <v>0.29504279999999999</v>
+      <c r="C22" s="3">
+        <v>0.28346769999999999</v>
       </c>
-      <c r="D21" s="4">
-        <v>0.14947099999999999</v>
+      <c r="D22" s="3">
+        <v>0.14205690000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>2010</v>
       </c>
-      <c r="B22" s="4">
-        <v>0.27833869999999999</v>
+      <c r="B23" s="3">
+        <v>0.27978340000000002</v>
       </c>
-      <c r="C22" s="4">
-        <v>0.32161450000000003</v>
+      <c r="C23" s="3">
+        <v>0.32128679999999998</v>
       </c>
-      <c r="D22" s="4">
-        <v>0.15359900000000001</v>
+      <c r="D23" s="3">
+        <v>0.14434759999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>2013</v>
       </c>
-      <c r="B23" s="4">
-        <v>0.28147909999999998</v>
+      <c r="B24" s="3">
+        <v>0.28455550000000002</v>
       </c>
-      <c r="C23" s="4">
-        <v>0.41763899999999998</v>
+      <c r="C24" s="3">
+        <v>0.41227730000000001</v>
       </c>
-      <c r="D23" s="4">
-        <v>0.16183600000000001</v>
+      <c r="D24" s="3">
+        <v>0.1570289</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.33675110000000003</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.41835879999999998</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.21896889999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="6" t="s">
-        <v>4</v>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" s="5"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A27" r:id="rId1" display="http://urbn.is/wealthcharts"/>
+    <hyperlink ref="A29" r:id="rId1" display="http://urbn.is/wealthcharts"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="88" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/StudentLoans.xlsx
+++ b/data/StudentLoans.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bchartof/Projects/wealth-inequality-charts/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\LHP\SMcKerna\Nine Charts 2017\Nine Charts Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1020" windowWidth="17240" windowHeight="8760"/>
+    <workbookView xWindow="240" yWindow="1020" windowWidth="17235" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Student Loans" sheetId="1" r:id="rId1"/>
@@ -66,12 +66,6 @@
     </r>
   </si>
   <si>
-    <t>Average Family Student Loan Debt for Those Age 25-55, 1989-2016</t>
-  </si>
-  <si>
-    <t>Share of Families With Student Loan Debt for Those Ages 25-55, 1989-2016</t>
-  </si>
-  <si>
     <t>Black</t>
   </si>
   <si>
@@ -81,6 +75,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Source:</t>
@@ -103,6 +98,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Note: </t>
@@ -118,16 +114,22 @@
       <t>2016 dollars. Age is defined as the age of the household head.</t>
     </r>
   </si>
+  <si>
+    <t>Share of Families with Student Loan Debt for Those Ages 25–55, 1989–2016</t>
+  </si>
+  <si>
+    <t>Average Family Student Loan Debt for Those Age 25–55, 1989–2016</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +185,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -234,13 +237,10 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -255,6 +255,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -23991,359 +23997,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
+    <row r="1" spans="1:4" s="9" customFormat="1">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>5</v>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1989</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>1100.4069999999999</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1160.568</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>897.58259999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>1321.3030000000001</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>927.48239999999998</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>793.06100000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>1995</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>1885.5830000000001</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>1922.886</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>1396.864</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>1998</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>3115.2080000000001</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>1325.2170000000001</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>1436.579</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>2001</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>2979.72</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>2223.7190000000001</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>1729.8610000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>4035.6750000000002</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>3987.1770000000001</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>1651.79</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>5263.567</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>6111.0280000000002</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>3005.4769999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>2010</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>8041.9889999999996</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>9510.1</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>3089.1660000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>2013</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>8363.6049999999996</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>10302.66</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>3177.41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>2016</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>11108.41</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>14224.77</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>7493.9989999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+    <row r="13" spans="1:4">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>5</v>
+      <c r="C15" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>1989</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="10">
         <v>0.10471229999999999</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="10">
         <v>0.1788198</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="10">
         <v>0.12725230000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>1992</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="10">
         <v>0.14333399999999999</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="10">
         <v>0.13827709999999999</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="10">
         <v>9.1457399999999994E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>1995</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="10">
         <v>0.16394529999999999</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="10">
         <v>0.1696231</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="10">
         <v>0.1355392</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>1998</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="10">
         <v>0.15646679999999999</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="10">
         <v>0.14063580000000001</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="10">
         <v>0.1022798</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>2001</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="10">
         <v>0.1467881</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="10">
         <v>0.18491850000000001</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="10">
         <v>0.13408100000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>2004</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="10">
         <v>0.18294060000000001</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="10">
         <v>0.21600839999999999</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="10">
         <v>0.1035643</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>2007</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="10">
         <v>0.1969195</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="10">
         <v>0.28346769999999999</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="10">
         <v>0.14205690000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>2010</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="10">
         <v>0.27978340000000002</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="10">
         <v>0.32128679999999998</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="10">
         <v>0.14434759999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>2013</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="10">
         <v>0.28455550000000002</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="10">
         <v>0.41227730000000001</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="10">
         <v>0.1570289</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>2016</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="10">
         <v>0.33675110000000003</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="10">
         <v>0.41835879999999998</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="10">
         <v>0.21896889999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>6</v>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>7</v>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
+    <row r="30" spans="1:4">
+      <c r="B30" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
